--- a/Classification Results/Augmented Data/Full VPOP Classification/By Diagnosis/Control 9 (0, 6, 9, 24, 32)/MDD 3 (37, 24, 6, 54, 21)/ANN_128nodes_Uniform0.05Virtual_Control(0, 6, 9, 24, 32)_MDD(37, 24, 6, 54, 21)_100perPatient_batchsize10_20maxITER_StandardizeAll_smoothing0_dropout0.5.xlsx
+++ b/Classification Results/Augmented Data/Full VPOP Classification/By Diagnosis/Control 9 (0, 6, 9, 24, 32)/MDD 3 (37, 24, 6, 54, 21)/ANN_128nodes_Uniform0.05Virtual_Control(0, 6, 9, 24, 32)_MDD(37, 24, 6, 54, 21)_100perPatient_batchsize10_20maxITER_StandardizeAll_smoothing0_dropout0.5.xlsx
@@ -456,10 +456,10 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>7.96941823333109E-10</v>
+        <v>2.525451729410438E-06</v>
       </c>
       <c r="E2">
-        <v>7.96941823333109E-10</v>
+        <v>2.525451729410438E-06</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -470,10 +470,10 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>0.0001684038745403713</v>
+        <v>8.300367348431201E-07</v>
       </c>
       <c r="E3">
-        <v>0.0001684038745403713</v>
+        <v>8.300367348431201E-07</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -484,10 +484,10 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.9999897984570667</v>
+        <v>0.9999999994448339</v>
       </c>
       <c r="E4">
-        <v>0.9999897984570667</v>
+        <v>0.9999999994448339</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.9999999994017092</v>
+        <v>0.9999999947117257</v>
       </c>
       <c r="E5">
-        <v>0.9999999994017092</v>
+        <v>0.9999999947117257</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -512,10 +512,10 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.9999999999813254</v>
+        <v>0.9999999999986409</v>
       </c>
       <c r="E6">
-        <v>0.9999999999813254</v>
+        <v>0.9999999999986409</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -540,10 +540,10 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>1.026172514156512E-13</v>
+        <v>5.92151658038622E-16</v>
       </c>
       <c r="E8">
-        <v>0.9999999999998974</v>
+        <v>0.9999999999999994</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -554,10 +554,10 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>3.385132407445504E-07</v>
+        <v>2.646024416517223E-06</v>
       </c>
       <c r="E9">
-        <v>0.9999996614867592</v>
+        <v>0.9999973539755835</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -568,10 +568,10 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>1.573153032301414E-12</v>
+        <v>4.54343339558829E-07</v>
       </c>
       <c r="E10">
-        <v>0.9999999999984268</v>
+        <v>0.9999995456566605</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -582,13 +582,13 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>1.847468711140756E-05</v>
+        <v>0.001655588090924821</v>
       </c>
       <c r="E11">
-        <v>0.9999815253128886</v>
+        <v>0.9983444119090752</v>
       </c>
       <c r="F11">
-        <v>14.03174591064453</v>
+        <v>13.66068553924561</v>
       </c>
       <c r="G11">
         <v>0.3</v>
